--- a/doc/tables/Supplementary/Supp_Table2.xlsx
+++ b/doc/tables/Supplementary/Supp_Table2.xlsx
@@ -1,36 +1,269 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamklie/Desktop/lab/projects/predictMEE/doc/supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92A98E2-0B6C-AD41-9C32-952E8BF9073D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A63C234-8751-D148-B83B-5DC0037E4ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Supp_Table2" sheetId="1" r:id="rId1"/>
+    <sheet name="Supp_Table1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>SCIENTIFIC_NAME</t>
+  </si>
+  <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t>host scientific name</t>
+  </si>
+  <si>
+    <t>organism</t>
+  </si>
+  <si>
+    <t>host_scientific_name</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>nat-host</t>
+  </si>
+  <si>
+    <t>specific host</t>
+  </si>
+  <si>
+    <t>host organism</t>
+  </si>
+  <si>
+    <t>host species</t>
+  </si>
+  <si>
+    <t>specific_host</t>
+  </si>
+  <si>
+    <t>HostSpecies</t>
+  </si>
+  <si>
+    <t>Strain</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>strain background</t>
+  </si>
+  <si>
+    <t>host_genotype</t>
+  </si>
+  <si>
+    <t>background strain</t>
+  </si>
+  <si>
+    <t>strain/background</t>
+  </si>
+  <si>
+    <t>genetic background</t>
+  </si>
+  <si>
+    <t>mouse strain</t>
+  </si>
+  <si>
+    <t>Mouse_Strain</t>
+  </si>
+  <si>
+    <t>StrainOrLine</t>
+  </si>
+  <si>
+    <t>host strain</t>
+  </si>
+  <si>
+    <t>stain</t>
+  </si>
+  <si>
+    <t>host_strain</t>
+  </si>
+  <si>
+    <t>strain or line</t>
+  </si>
+  <si>
+    <t>strain name</t>
+  </si>
+  <si>
+    <t>host infra-specific name</t>
+  </si>
+  <si>
+    <t>host genotype</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>host_breed</t>
+  </si>
+  <si>
+    <t>maternal strain</t>
+  </si>
+  <si>
+    <t>paternal strain</t>
+  </si>
+  <si>
+    <t>Cell type</t>
+  </si>
+  <si>
+    <t>cell type</t>
+  </si>
+  <si>
+    <t>cell_type</t>
+  </si>
+  <si>
+    <t>source_name</t>
+  </si>
+  <si>
+    <t>source cell type</t>
+  </si>
+  <si>
+    <t>CellType</t>
+  </si>
+  <si>
+    <t>progenitor cell type</t>
+  </si>
+  <si>
+    <t>cell types</t>
+  </si>
+  <si>
+    <t>cell-type</t>
+  </si>
+  <si>
+    <t>cell description</t>
+  </si>
+  <si>
+    <t>CELL_TYPE</t>
+  </si>
+  <si>
+    <t>biomaterial_type</t>
+  </si>
+  <si>
+    <t>tissue/cell type</t>
+  </si>
+  <si>
+    <t>Genotype</t>
+  </si>
+  <si>
+    <t>genotype</t>
+  </si>
+  <si>
+    <t>genotype/variation</t>
+  </si>
+  <si>
+    <t>mutant</t>
+  </si>
+  <si>
+    <t>mutation</t>
+  </si>
+  <si>
+    <t>plant genotype</t>
+  </si>
+  <si>
+    <t>genetic variation</t>
+  </si>
+  <si>
+    <t>idh2.gene.mutation</t>
+  </si>
+  <si>
+    <t>Condition/Disease</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>disease status</t>
+  </si>
+  <si>
+    <t>tumor type</t>
+  </si>
+  <si>
+    <t>health state</t>
+  </si>
+  <si>
+    <t>cancer type</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>tissue</t>
+  </si>
+  <si>
+    <t>tissue_type</t>
+  </si>
+  <si>
+    <t>organism part</t>
+  </si>
+  <si>
+    <t>tissue-type</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>host_sex</t>
+  </si>
+  <si>
+    <t>host ex</t>
+  </si>
+  <si>
+    <t>sex_infant_1</t>
+  </si>
+  <si>
+    <t>sex / reassigned sex</t>
+  </si>
+  <si>
+    <t>Host_Gender</t>
+  </si>
+  <si>
+    <t>babygender_m_f</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>breeding direction</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>host sex</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>sex_def_prob</t>
+  </si>
   <si>
     <t>Age</t>
   </si>
@@ -38,86 +271,113 @@
     <t>age</t>
   </si>
   <si>
-    <t>Cell type</t>
-  </si>
-  <si>
-    <t>cell type</t>
-  </si>
-  <si>
-    <t>Condition/Disease</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
     <t>Data type</t>
   </si>
   <si>
     <t>molecular data type</t>
   </si>
   <si>
-    <t>Genotype</t>
-  </si>
-  <si>
-    <t>genotype</t>
-  </si>
-  <si>
     <t>Platform</t>
   </si>
   <si>
     <t>platform</t>
   </si>
   <si>
+    <t>instrument_model</t>
+  </si>
+  <si>
+    <t>Sequencing_method</t>
+  </si>
+  <si>
+    <t>sequencing method</t>
+  </si>
+  <si>
+    <t>INSTRUMENT_MODEL</t>
+  </si>
+  <si>
+    <t>SequencingTechnology</t>
+  </si>
+  <si>
+    <t>sequencer</t>
+  </si>
+  <si>
+    <t>illumina_technology</t>
+  </si>
+  <si>
+    <t>labversion description</t>
+  </si>
+  <si>
+    <t>illumina_technlogy</t>
+  </si>
+  <si>
+    <t>Sequencer</t>
+  </si>
+  <si>
+    <t>seq_meth</t>
+  </si>
+  <si>
+    <t>sequencing_platform</t>
+  </si>
+  <si>
+    <t>seq_methods</t>
+  </si>
+  <si>
+    <t>sequencing_machine</t>
+  </si>
+  <si>
+    <t>sequencing_method</t>
+  </si>
+  <si>
+    <t>runchemistry</t>
+  </si>
+  <si>
+    <t>seq_method</t>
+  </si>
+  <si>
     <t>Protocol</t>
   </si>
   <si>
     <t>protocol</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>SCIENTIFIC_NAME</t>
-  </si>
-  <si>
-    <t>Strain</t>
-  </si>
-  <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>Tissue</t>
-  </si>
-  <si>
-    <t>tissue</t>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>extract_protocol</t>
+  </si>
+  <si>
+    <t>experiment type</t>
+  </si>
+  <si>
+    <t>assay</t>
+  </si>
+  <si>
+    <t>protocol description</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>library_type</t>
   </si>
   <si>
     <t>Class Name</t>
   </si>
   <si>
-    <t>Original Attribute</t>
-  </si>
-  <si>
-    <t>Original Attribute Count</t>
-  </si>
-  <si>
-    <t>Class Name Count</t>
-  </si>
-  <si>
-    <t>Fold Increase</t>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Cosine Similarity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,15 +513,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +711,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -611,9 +889,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -659,33 +940,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -696,20 +951,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C81F28F-7461-6947-B8C8-1F02420BAD68}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="A1:E12" xr:uid="{D0564FB9-D2D9-A844-9F21-7953EAA061E3}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1A7ADE1C-2AD1-4E4A-999D-D6DDE01FC848}" name="Class Name"/>
-    <tableColumn id="2" xr3:uid="{AF29A3E5-38A2-454F-8957-93149018D21C}" name="Original Attribute"/>
-    <tableColumn id="3" xr3:uid="{D44DD57E-FEC5-9447-AE4B-02D1F220315F}" name="Original Attribute Count"/>
-    <tableColumn id="4" xr3:uid="{C475FA81-3D62-D946-B43E-9336B0D52789}" name="Class Name Count"/>
-    <tableColumn id="5" xr3:uid="{DC351171-27D0-674C-9416-4C51BFBE16F5}" name="Fold Increase"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1009,229 +1250,946 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="21" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.91665283432953504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.91088483293813505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.90304950919534799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.88566824122403698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.88354489060717001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.85935496132139499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.85336654164699799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.85068555133588097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.83098197291352704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.80549659129556495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.80141716773088301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.93210023832480904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.93107157880400004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.92652533328633702</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.92468775052016305</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.91224849449103096</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.90603777230904203</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.89877788601278297</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C22" s="3">
+        <v>0.89367610505392303</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C23" s="3">
+        <v>0.891296801188181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C24" s="3">
+        <v>0.89116233431659198</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C25" s="3">
+        <v>0.88054854373915603</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C26" s="3">
+        <v>0.88033170668232497</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.87887713669077605</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.87008457738077805</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.86546572412405798</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.86411535103869697</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.84851406108276795</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.83642295637378405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.83474782943855197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.81245482025024895</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>363161</v>
-      </c>
-      <c r="D2">
-        <v>370206</v>
-      </c>
-      <c r="E2">
-        <v>1.0193991094858701</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>150652</v>
-      </c>
-      <c r="D3">
-        <v>660709</v>
-      </c>
-      <c r="E3">
-        <v>4.3856636486737601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>36349</v>
-      </c>
-      <c r="D4">
-        <v>47714</v>
-      </c>
-      <c r="E4">
-        <v>1.31266334699716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>544515</v>
-      </c>
-      <c r="D5">
-        <v>544515</v>
-      </c>
-      <c r="E5">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.89694592882388502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.88605526286675595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.88462528012649599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.86949338706428503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.86553331407511802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.86468465550714302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.85306867790763297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.84852319544131405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.84498911318994896</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.84100850552318296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.82732814527449094</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>117332</v>
-      </c>
-      <c r="D6">
-        <v>154012</v>
-      </c>
-      <c r="E6">
-        <v>1.31261718883169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>3476</v>
-      </c>
-      <c r="D7">
-        <v>147827</v>
-      </c>
-      <c r="E7">
-        <v>42.527905638665104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>5851</v>
-      </c>
-      <c r="D8">
-        <v>9028</v>
-      </c>
-      <c r="E8">
-        <v>1.5429841052811399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>643290</v>
-      </c>
-      <c r="D9">
-        <v>807086</v>
-      </c>
-      <c r="E9">
-        <v>1.2546223320741801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>2773124</v>
-      </c>
-      <c r="D10">
-        <v>3412251</v>
-      </c>
-      <c r="E10">
-        <v>1.2304718433074</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>598496</v>
-      </c>
-      <c r="D11">
-        <v>834505</v>
-      </c>
-      <c r="E11">
-        <v>1.394336804256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>446429</v>
-      </c>
-      <c r="D12">
-        <v>963458</v>
-      </c>
-      <c r="E12">
-        <v>2.1581438481819002</v>
+    <row r="48" spans="1:3">
+      <c r="B48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.94008036920651195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.89510550978356596</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.88214123845570303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.84708731855864094</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.82445669641980301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.81162934164067901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.80128594429284905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.80092387031943602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.83292588586298499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.82833636539614097</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.82765096984113995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.82580075938706399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.81255240598802703</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.912882175642584</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.84766368732652897</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="B65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.82680281439907499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.80019665064946899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.99718457206091404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.99591383934025302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.99521068858645501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="B71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.99500754202651098</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="B72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.99478838779817003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.99465898692044596</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.99391055831244801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.99358238363859597</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.98653971194985002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.98098554245805303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.93904163521625905</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="B79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.930407969608255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="B80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.90020152931511999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="B81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.86534517866403904</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="B83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.83217257447737703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.94204076099675205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="B87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.93479516855697298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="B88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.93437603598324703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.932253026897503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="B90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.93029953866334003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.92586004289064605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.91591011511026799</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="B93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.91441314471824198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="B94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.91391280264190999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="B95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.91043434975317405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.90964231768266401</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="B97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.90317315802391795</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.89207226170540599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.89149047613889398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.88968432659447105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.87386053432504995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="B102" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.85030727042679199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="B103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.80192733926123305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="B105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.88727238682901699</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.85958378079652698</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="B107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0.85828115562140095</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.84980230104754795</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="B109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.84393139782250204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="B110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.84322623988910195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="B111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0.80004382197660195</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>